--- a/rawData/movie_recommendations.xlsx
+++ b/rawData/movie_recommendations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -25,259 +25,331 @@
     <t>Reviewer</t>
   </si>
   <si>
+    <t>12 Angry Men</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>12 Monkeys</t>
+  </si>
+  <si>
+    <t>Sci-Fi</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>2001: A Space Odyssey</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>A Beautiful Mind</t>
+  </si>
+  <si>
+    <t>Biopic</t>
+  </si>
+  <si>
+    <t>A Quiet Place</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>Manohar</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Big Lebowski</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Revolutionary</t>
+  </si>
+  <si>
+    <t>Kristian</t>
+  </si>
+  <si>
+    <t>Budapest Hotel</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Carnage</t>
+  </si>
+  <si>
+    <t>Casablanca</t>
+  </si>
+  <si>
+    <t>Glynis</t>
+  </si>
+  <si>
+    <t>Chappie</t>
+  </si>
+  <si>
+    <t>Children of Men</t>
+  </si>
+  <si>
+    <t>Citizen 4</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Cloud Atlas</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Der unsichtbare Gast</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>Dune</t>
+  </si>
+  <si>
+    <t>Evil Dead</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t>Ex Machina</t>
+  </si>
+  <si>
+    <t>Fear and loathing in Las Vegas</t>
+  </si>
+  <si>
+    <t>Comedy / Trippy</t>
+  </si>
+  <si>
+    <t>Fight Club</t>
+  </si>
+  <si>
+    <t>Gone with the Wind</t>
+  </si>
+  <si>
+    <t>Good Will Hunting</t>
+  </si>
+  <si>
+    <t>Grease</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Her</t>
+  </si>
+  <si>
+    <t>Imitation Game</t>
+  </si>
+  <si>
+    <t>In Bruges</t>
+  </si>
+  <si>
+    <t>Dark Comedy</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t>Inception</t>
   </si>
   <si>
     <t>Thriller</t>
   </si>
   <si>
-    <t>Paul</t>
+    <t>Kill Bill 1</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Lawrence of Arabia</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Le Parfum</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Lord of War</t>
+  </si>
+  <si>
+    <t>Mamma Mia</t>
+  </si>
+  <si>
+    <t>Musical</t>
+  </si>
+  <si>
+    <t>Match Point</t>
+  </si>
+  <si>
+    <t>Memento</t>
+  </si>
+  <si>
+    <t>Metropolis</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Mighty Morphin Power Rangers</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Moneyball</t>
+  </si>
+  <si>
+    <t>Monster X vs the G7 Summit</t>
+  </si>
+  <si>
+    <t>Kaiju</t>
+  </si>
+  <si>
+    <t>Monty Python and the Holy Grail</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Observe and report</t>
+  </si>
+  <si>
+    <t>Pacific Rim 2</t>
+  </si>
+  <si>
+    <t>Pulp Fiction</t>
+  </si>
+  <si>
+    <t>Ready Player 1</t>
+  </si>
+  <si>
+    <t>Rear Window</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture</t>
+  </si>
+  <si>
+    <t>Run Lola Run</t>
+  </si>
+  <si>
+    <t>Crime/Drama?</t>
+  </si>
+  <si>
+    <t>Scarface</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Sleepy Hollow</t>
+  </si>
+  <si>
+    <t>Cartoon</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Super Troopers</t>
+  </si>
+  <si>
+    <t>Teenage Mutant Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>The Empire Strikes Back</t>
+  </si>
+  <si>
+    <t>The Fountain</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>The Imitation Game</t>
+  </si>
+  <si>
+    <t>The Lion King</t>
+  </si>
+  <si>
+    <t>The Matrix</t>
+  </si>
+  <si>
+    <t>The Meaning of Life</t>
+  </si>
+  <si>
+    <t>The Prestige</t>
+  </si>
+  <si>
+    <t>The Ring</t>
+  </si>
+  <si>
+    <t>The Silence of the Lambs</t>
+  </si>
+  <si>
+    <t>The Zero Theorem</t>
+  </si>
+  <si>
+    <t>There will be Blood</t>
   </si>
   <si>
     <t>Titanic</t>
   </si>
   <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>Kristian</t>
-  </si>
-  <si>
-    <t>Memento</t>
-  </si>
-  <si>
-    <t>Helena</t>
-  </si>
-  <si>
-    <t>The Lion King</t>
-  </si>
-  <si>
-    <t>Cartoon</t>
-  </si>
-  <si>
-    <t>Evil Dead</t>
-  </si>
-  <si>
-    <t>Horror</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Carnage</t>
-  </si>
-  <si>
-    <t>Comedy</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>cartoon</t>
-  </si>
-  <si>
-    <t>Pulp Fiction</t>
-  </si>
-  <si>
-    <t>Crime</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>Run Lola Run</t>
-  </si>
-  <si>
-    <t>Crime/Drama?</t>
-  </si>
-  <si>
-    <t>The Godfather</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>In Bruges</t>
-  </si>
-  <si>
-    <t>Dark Comedy</t>
-  </si>
-  <si>
-    <t>Metropolis</t>
-  </si>
-  <si>
-    <t>Fantasy</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Science Fiction</t>
-  </si>
-  <si>
-    <t>Pacific Rim 2</t>
-  </si>
-  <si>
-    <t>Kaiju</t>
-  </si>
-  <si>
-    <t>Monster X vs the G7 Summit</t>
-  </si>
-  <si>
-    <t>The Empire Strikes Back</t>
-  </si>
-  <si>
-    <t>Der unsichtbare Gast</t>
-  </si>
-  <si>
-    <t>Mystery</t>
-  </si>
-  <si>
-    <t>The Silence of the Lambs</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>Mighty Morphin Power Rangers</t>
-  </si>
-  <si>
-    <t>The Ring</t>
-  </si>
-  <si>
-    <t>Big Lebowski</t>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>Sleepy Hollow</t>
-  </si>
-  <si>
-    <t>Monty Python and the Holy Grail</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>Cloud Atlas</t>
-  </si>
-  <si>
-    <t>Sci-Fi</t>
-  </si>
-  <si>
-    <t>Manohar</t>
-  </si>
-  <si>
-    <t>Budapest Hotel</t>
-  </si>
-  <si>
-    <t>Teenage Mutant Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Casablanca</t>
-  </si>
-  <si>
-    <t>Glynis</t>
-  </si>
-  <si>
-    <t>Rear Window</t>
-  </si>
-  <si>
-    <t>Fight Club</t>
-  </si>
-  <si>
-    <t>Revolutionary</t>
-  </si>
-  <si>
-    <t>A beautiful mind</t>
-  </si>
-  <si>
-    <t>Biopic</t>
-  </si>
-  <si>
-    <t>Kill Bill 1</t>
-  </si>
-  <si>
-    <t>Observe and report</t>
-  </si>
-  <si>
     <t>Farce</t>
   </si>
   <si>
-    <t>Grease</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>Lawrence of Arabia</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>Mamma Mia</t>
-  </si>
-  <si>
-    <t>Musical</t>
-  </si>
-  <si>
-    <t>Gone with the Wind</t>
-  </si>
-  <si>
-    <t>The Imitation Game</t>
-  </si>
-  <si>
-    <t>Ready Player 1</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Good Will Hunting</t>
-  </si>
-  <si>
-    <t>Citizen 4</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>Ex Machina</t>
-  </si>
-  <si>
-    <t>2001: A space odyssey</t>
-  </si>
-  <si>
-    <t>Moneyball</t>
-  </si>
-  <si>
-    <t>12 Angry Men</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Science fiction</t>
-  </si>
-  <si>
-    <t>Adaptation</t>
-  </si>
-  <si>
-    <t>12 Monkeys</t>
+    <t>Trancendence</t>
+  </si>
+  <si>
+    <t>Waking Life</t>
+  </si>
+  <si>
+    <t>Trippy</t>
+  </si>
+  <si>
+    <t>God Bless America</t>
+  </si>
+  <si>
+    <t>Ran</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>Pi</t>
   </si>
 </sst>
 </file>
@@ -360,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -385,7 +457,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>5.0</v>
@@ -402,10 +474,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -413,27 +485,27 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -441,105 +513,111 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>5.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -553,7 +631,7 @@
         <v>5.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -561,38 +639,38 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -600,80 +678,80 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>3.0</v>
@@ -684,100 +762,100 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C32" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -785,13 +863,13 @@
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -805,7 +883,7 @@
         <v>5.0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -813,197 +891,203 @@
         <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
         <v>5.0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C37" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C46" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1">
         <v>5.0</v>
@@ -1014,44 +1098,69 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1">
         <v>5.0</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3.0</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
@@ -1059,13 +1168,13 @@
         <v>84</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -1073,24 +1182,27 @@
         <v>85</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5.0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C57" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -1098,13 +1210,346 @@
         <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4.0</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
